--- a/PCB/PCBv1.1/BOM.xlsx
+++ b/PCB/PCBv1.1/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Veridian-Heliograph\PCB\PCBv1.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Veridian-Heliograph\PCB\PCBv1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0076C42-443F-4BB5-87A5-A773E814C7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86D43A7-1A20-4103-B898-1079D35FC03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="21705" windowHeight="31680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="163">
   <si>
     <t>Reference</t>
   </si>
@@ -60,12 +60,6 @@
     <t xml:space="preserve">C7 C12 </t>
   </si>
   <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_1206_3216Metric</t>
-  </si>
-  <si>
     <t xml:space="preserve">C14 C17 </t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>10nF</t>
   </si>
   <si>
-    <t xml:space="preserve">C2 C3 </t>
-  </si>
-  <si>
     <t>4.7uF</t>
   </si>
   <si>
@@ -135,9 +126,6 @@
     <t>Conn_01x10_Female</t>
   </si>
   <si>
-    <t>Margo_Lib:AYF531035</t>
-  </si>
-  <si>
     <t xml:space="preserve">J2 </t>
   </si>
   <si>
@@ -207,12 +195,6 @@
     <t xml:space="preserve">R4 </t>
   </si>
   <si>
-    <t>412k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5 </t>
-  </si>
-  <si>
     <t>91k</t>
   </si>
   <si>
@@ -237,15 +219,6 @@
     <t>RF_GPS:ublox_MAX</t>
   </si>
   <si>
-    <t xml:space="preserve">U4 </t>
-  </si>
-  <si>
-    <t>STM32WB5MMGH6TR</t>
-  </si>
-  <si>
-    <t>Veridian-Library-KiCad:XCVR_STM32WB5MMGH6TR</t>
-  </si>
-  <si>
     <t>STMicroelectronics</t>
   </si>
   <si>
@@ -312,27 +285,9 @@
     <t>BZT52C5V1T-TPMSCT-ND</t>
   </si>
   <si>
-    <t>Panasonic Electric Works</t>
-  </si>
-  <si>
-    <t>AYF531035A</t>
-  </si>
-  <si>
-    <t>255-5667-ND</t>
-  </si>
-  <si>
     <t>DNF</t>
   </si>
   <si>
-    <t>PM20C05VBDN</t>
-  </si>
-  <si>
-    <t>METZ CONNECT USA Inc.</t>
-  </si>
-  <si>
-    <t>1849-1015-ND</t>
-  </si>
-  <si>
     <t>36-7781-ND</t>
   </si>
   <si>
@@ -360,9 +315,6 @@
     <t>MAX-M10M-00B</t>
   </si>
   <si>
-    <t>497-STM32WB5MMGH6CT-ND</t>
-  </si>
-  <si>
     <t>296-37078-1-ND</t>
   </si>
   <si>
@@ -411,12 +363,6 @@
     <t>PCB</t>
   </si>
   <si>
-    <t>GRM31CD80J107MEA8K</t>
-  </si>
-  <si>
-    <t>490-GRM31CD80J107MEA8KCT-ND</t>
-  </si>
-  <si>
     <t>GRM188R61A105KA61J</t>
   </si>
   <si>
@@ -450,12 +396,6 @@
     <t>311-390GRCT-ND</t>
   </si>
   <si>
-    <t>RC0603FR-07412KL</t>
-  </si>
-  <si>
-    <t>311-412KHRCT-ND</t>
-  </si>
-  <si>
     <t>RC0603FR-0791KL</t>
   </si>
   <si>
@@ -492,9 +432,6 @@
     <t>Capacitor_SMD:C_0402_1005Metric</t>
   </si>
   <si>
-    <t>C1, C10, C11, C13</t>
-  </si>
-  <si>
     <t>KEMET</t>
   </si>
   <si>
@@ -510,7 +447,82 @@
     <t xml:space="preserve">R2 R6 R12 R13 R14 R15 </t>
   </si>
   <si>
-    <t>C8, C9, C20, C21, C25, C26</t>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C4, C10</t>
+  </si>
+  <si>
+    <t>11pF</t>
+  </si>
+  <si>
+    <t>C8, C9, C11, C20, C21, C25, C26</t>
+  </si>
+  <si>
+    <t>47uF</t>
+  </si>
+  <si>
+    <t>C2 C3 C13</t>
+  </si>
+  <si>
+    <t>FPC</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>432k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1 R5 </t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>STM32L011G3Ux</t>
+  </si>
+  <si>
+    <t>Package_DFN_QFN:QFN-28_4x4mm_P0.5mm</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Crystal:Crystal_SMD_3215-2Pin_3.2x1.5mm</t>
+  </si>
+  <si>
+    <t>SC32S-7PF20PPM</t>
+  </si>
+  <si>
+    <t>Seiko Instruments</t>
+  </si>
+  <si>
+    <t>728-1074-1-ND</t>
+  </si>
+  <si>
+    <t>STM32L011G3U6</t>
+  </si>
+  <si>
+    <t>497-19187-ND</t>
+  </si>
+  <si>
+    <t>311-432KHRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-07432KL</t>
+  </si>
+  <si>
+    <t>GRT21BR60J476ME13L</t>
+  </si>
+  <si>
+    <t>490-12371-1-ND</t>
+  </si>
+  <si>
+    <t>490-1404-1-ND</t>
+  </si>
+  <si>
+    <t>GRM1885C1H110JA01D</t>
   </si>
 </sst>
 </file>
@@ -873,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,117 +914,114 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="H2" s="3">
-        <v>15.1318</v>
+        <v>1.6272</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="G3" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="H3" s="3">
-        <v>12.2097</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="H4" s="3">
-        <v>5.0499000000000001</v>
+        <v>5.3699999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H5" s="3">
         <v>2.9862000000000002</v>
@@ -1020,461 +1029,422 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H6" s="3">
-        <v>2.0329999999999999</v>
+        <v>0.18279999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H7" s="3">
-        <v>1.9172</v>
+        <v>9.4100000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>141</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="H8" s="3">
-        <v>1.6272</v>
+        <v>0.3135</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="H9" s="3">
-        <v>1.0860000000000001</v>
+        <v>3.8899999999999997E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>96</v>
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="H10" s="3">
-        <v>0.63029999999999997</v>
+        <v>0.22270000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11">
-        <v>7781</v>
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="H11" s="3">
-        <v>0.5131</v>
+        <v>0.1069</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>125</v>
+        <v>27</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="H12" s="3">
-        <v>0.35210000000000002</v>
+        <v>0.17299999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="H13" s="3">
-        <v>0.31069999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0.27110000000000001</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.22270000000000001</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="H16" s="3">
-        <v>0.18279999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0.17299999999999999</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>86</v>
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>7781</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H18" s="3">
-        <v>0.1069</v>
+        <v>0.5131</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="H19" s="3">
-        <v>9.4100000000000003E-2</v>
+        <v>0.31069999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="H20" s="3">
-        <v>0.06</v>
+        <v>0.27110000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B21">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F21" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H21" s="3">
-        <v>3.8899999999999997E-2</v>
+        <v>1.43E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>390</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="G22" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H22" s="3">
-        <v>1.43E-2</v>
+        <v>1.18E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="F23" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="G23" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="H23" s="3">
         <v>1.43E-2</v>
@@ -1482,25 +1452,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F24" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="G24" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="H24" s="3">
         <v>1.43E-2</v>
@@ -1508,25 +1478,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="G25" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="H25" s="3">
         <v>1.43E-2</v>
@@ -1534,25 +1504,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="H26" s="3">
         <v>1.43E-2</v>
@@ -1560,154 +1530,250 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27">
-        <v>390</v>
+      <c r="C27" t="s">
+        <v>148</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="H27" s="3">
-        <v>1.18E-2</v>
+        <v>2.9128799999999999</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
-      </c>
-      <c r="H28" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="3">
+        <v>12.2097</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
       </c>
       <c r="E29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" t="s">
         <v>95</v>
       </c>
-      <c r="H29" s="3"/>
+      <c r="G29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="3">
+        <v>5.0499000000000001</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
-      </c>
-      <c r="H30" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="3">
+        <v>2.0329999999999999</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>70</v>
+      </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="G31" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="H31" s="3">
-        <v>11.003</v>
+        <v>1.9172</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>32.768000000000001</v>
+      </c>
+      <c r="D32" t="s">
+        <v>151</v>
       </c>
       <c r="E32" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="F32" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="G32" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="H32" s="3">
-        <v>8.5571000000000002</v>
+        <v>0.40500000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
+      <c r="E33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" t="s">
+        <v>102</v>
+      </c>
       <c r="H33" s="3">
-        <v>1</v>
+        <v>11.029</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" t="s">
+        <v>107</v>
       </c>
       <c r="H34" s="3">
+        <v>8.5571000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H36" s="4">
-        <f>SUMPRODUCT(H2:H34,B2:B34)</f>
-        <v>82.045699999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="4">
+        <f>SUMPRODUCT(H2:H36,B2:B36)</f>
+        <v>68.627679999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H30">
-    <sortCondition descending="1" ref="H2:H30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H31">
+    <sortCondition ref="A2:A31"/>
   </sortState>
+  <conditionalFormatting sqref="H2:H36">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E18" r:id="rId1" display="https://www.digikey.ca/en/products/detail/osram-opto-semiconductors-inc/LS-R976-NR-1/1227987" xr:uid="{8942F0FB-9A60-41EA-8BA0-EA33C49B86B1}"/>
-    <hyperlink ref="E17" r:id="rId2" display="https://www.digikey.ca/en/products/detail/micro-commercial-co/BZT52C5V1T-TP/966530" xr:uid="{1F89AFA6-F465-469F-AACC-975836DE1EBF}"/>
-    <hyperlink ref="E10" r:id="rId3" display="https://www.digikey.ca/en/products/detail/metz-connect-usa-inc/PM20C05VBDN/7794780" xr:uid="{E88F7783-D7B9-4D20-9424-1B473A316558}"/>
+    <hyperlink ref="E11" r:id="rId1" display="https://www.digikey.ca/en/products/detail/osram-opto-semiconductors-inc/LS-R976-NR-1/1227987" xr:uid="{8942F0FB-9A60-41EA-8BA0-EA33C49B86B1}"/>
+    <hyperlink ref="E12" r:id="rId2" display="https://www.digikey.ca/en/products/detail/micro-commercial-co/BZT52C5V1T-TP/966530" xr:uid="{1F89AFA6-F465-469F-AACC-975836DE1EBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>